--- a/URS/DbLayouts/L6-共同作業/CdArea.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdArea.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FFAFFA-0E57-4EFC-B994-91C3BB7C1C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -315,12 +314,32 @@
     <t>areaCodeRange</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>JcicAreaCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by eric 2021.9.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicCityCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCIC縣市碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCIC鄉鎮碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,7 +445,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +456,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -501,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,12 +613,18 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,23 +715,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -736,23 +750,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -928,14 +925,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="11" bestFit="1" customWidth="1"/>
@@ -946,7 +943,7 @@
     <col min="8" max="16384" width="21.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
@@ -961,7 +958,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="20" t="s">
@@ -974,7 +971,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>23</v>
       </c>
@@ -987,7 +984,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>24</v>
       </c>
@@ -1002,7 +999,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>25</v>
       </c>
@@ -1015,7 +1012,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>26</v>
       </c>
@@ -1026,7 +1023,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>27</v>
       </c>
@@ -1037,7 +1034,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" s="10" customFormat="1">
+    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>1</v>
       </c>
@@ -1081,8 +1078,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -1102,8 +1100,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
+        <f t="shared" ref="A11:A23" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -1123,8 +1122,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -1144,8 +1144,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -1165,139 +1166,148 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C16" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="26">
-        <v>2</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="26">
-        <v>7</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="26">
-        <v>3</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="26">
-        <v>8</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>36</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E18" s="26">
+        <v>6</v>
+      </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>13</v>
@@ -1308,15 +1318,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>9</v>
@@ -1329,33 +1340,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="26"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="26"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="26">
+        <v>6</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="8"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="4"/>
       <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1374,7 +1427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1382,7 +1435,7 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -1390,7 +1443,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1401,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1412,7 +1465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1423,7 +1476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>

--- a/URS/DbLayouts/L6-共同作業/CdArea.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdArea.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05929D55-580F-4DBD-B985-DA33D9C2FD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -334,12 +335,38 @@
     <t>JCIC鄉鎮碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>by eric 2021.9.29
+C:基隆市
+A:台北市
+F:新北市
+H:桃園市
+O:新竹市
+J:新竹縣
+K:苗栗縣
+B:台中市
+N:彰化縣
+M:南投縣
+P:雲林縣
+I:嘉義市
+Q:嘉義縣
+D:台南市
+E:高雄市
+T:屏東縣
+V:台東縣
+U:花蓮縣
+G:宜蘭縣
+W:金門縣
+X:澎湖縣
+Z:連江縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -608,23 +635,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -715,6 +742,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -750,6 +794,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -925,14 +986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="11" bestFit="1" customWidth="1"/>
@@ -943,11 +1004,11 @@
     <col min="8" max="16384" width="21.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="16" t="s">
         <v>41</v>
       </c>
@@ -958,9 +1019,9 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
@@ -971,11 +1032,11 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="16" t="s">
         <v>48</v>
       </c>
@@ -984,11 +1045,11 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="24" t="s">
         <v>50</v>
       </c>
@@ -999,11 +1060,11 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="24" t="s">
         <v>63</v>
       </c>
@@ -1012,29 +1073,29 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="24"/>
       <c r="D6" s="23"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="24"/>
       <c r="D7" s="23"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="10" customFormat="1">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1057,7 +1118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="26">
         <v>1</v>
       </c>
@@ -1078,7 +1139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="26">
         <f>A9+1</f>
         <v>2</v>
@@ -1100,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="26">
         <f t="shared" ref="A11:A23" si="0">A10+1</f>
         <v>3</v>
@@ -1122,7 +1183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1144,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1166,51 +1227,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="372.6">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="27">
         <v>1</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="27">
         <v>2</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="s">
+      <c r="F15" s="27"/>
+      <c r="G15" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1232,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1254,7 +1315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1276,7 +1337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1298,7 +1359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="26">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1318,7 +1379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1340,7 +1401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1360,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1382,7 +1443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="26"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -1390,7 +1451,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="26"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
@@ -1399,12 +1460,12 @@
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="4"/>
@@ -1427,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1435,7 +1496,7 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -1443,7 +1504,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1454,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1465,7 +1526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1476,7 +1537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
